--- a/Comparació_predicció_realitat.xlsx
+++ b/Comparació_predicció_realitat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottocapo/Desktop/Treball-de-Recerca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC117C5-5DC7-2C4A-84D4-6004E77AC275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AA23BB-ABDC-7D45-86AB-D68688226B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="980" windowWidth="33600" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matches" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="26">
   <si>
     <t>Jornada</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Realitat</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>X</t>
@@ -175,7 +172,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,7 +482,7 @@
   <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -522,8 +519,8 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -628,7 +625,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -642,7 +639,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -662,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">

--- a/Comparació_predicció_realitat.xlsx
+++ b/Comparació_predicció_realitat.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottocapo/Desktop/Treball-de-Recerca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AA23BB-ABDC-7D45-86AB-D68688226B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358E86A3-820B-2D42-9111-70D26CF5B827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="980" windowWidth="33600" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="520" windowWidth="33600" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matches" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="30">
   <si>
     <t>Jornada</t>
   </si>
@@ -97,7 +110,19 @@
     <t>Realitat</t>
   </si>
   <si>
-    <t>X</t>
+    <t>Precisió algoritme:</t>
+  </si>
+  <si>
+    <t>Encert</t>
+  </si>
+  <si>
+    <t>Home_Win = 1</t>
+  </si>
+  <si>
+    <t>Away_Win =-1</t>
+  </si>
+  <si>
+    <t>Draw = 0</t>
   </si>
 </sst>
 </file>
@@ -167,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -175,6 +200,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,20 +508,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E381"/>
+  <dimension ref="A1:K381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +538,14 @@
       <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -525,8 +561,15 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>IF(D2=E2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -542,8 +585,15 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">IF(D3=E3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -554,13 +604,17 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -574,10 +628,21 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUM(F2:F500)/COUNTA(F2:F500)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -588,13 +653,17 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -605,13 +674,17 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -621,14 +694,18 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -638,14 +715,18 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -658,11 +739,15 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -672,8 +757,18 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -683,8 +778,18 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -694,8 +799,18 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -705,8 +820,18 @@
       <c r="C14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -716,8 +841,18 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -727,8 +862,18 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -738,8 +883,18 @@
       <c r="C17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -749,8 +904,18 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -760,8 +925,18 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -771,8 +946,18 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -782,8 +967,18 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -793,8 +988,18 @@
       <c r="C22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -804,8 +1009,18 @@
       <c r="C23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -815,8 +1030,18 @@
       <c r="C24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -826,8 +1051,18 @@
       <c r="C25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -837,8 +1072,18 @@
       <c r="C26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -848,8 +1093,18 @@
       <c r="C27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -859,8 +1114,18 @@
       <c r="C28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -870,8 +1135,18 @@
       <c r="C29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -881,8 +1156,18 @@
       <c r="C30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -892,8 +1177,18 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -903,8 +1198,18 @@
       <c r="C32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -914,8 +1219,18 @@
       <c r="C33" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -925,8 +1240,18 @@
       <c r="C34" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -936,8 +1261,18 @@
       <c r="C35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -947,8 +1282,18 @@
       <c r="C36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -958,8 +1303,18 @@
       <c r="C37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -969,8 +1324,18 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -980,8 +1345,18 @@
       <c r="C39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -991,8 +1366,18 @@
       <c r="C40" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1002,8 +1387,18 @@
       <c r="C41" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1013,8 +1408,18 @@
       <c r="C42" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1024,8 +1429,18 @@
       <c r="C43" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1035,8 +1450,18 @@
       <c r="C44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1046,8 +1471,18 @@
       <c r="C45" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <v>-1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1057,8 +1492,18 @@
       <c r="C46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1068,8 +1513,18 @@
       <c r="C47" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1079,8 +1534,18 @@
       <c r="C48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1090,8 +1555,18 @@
       <c r="C49" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>-1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1101,8 +1576,18 @@
       <c r="C50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1112,8 +1597,18 @@
       <c r="C51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6</v>
       </c>
@@ -1123,8 +1618,18 @@
       <c r="C52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1134,8 +1639,18 @@
       <c r="C53" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>6</v>
       </c>
@@ -1145,8 +1660,18 @@
       <c r="C54" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>6</v>
       </c>
@@ -1156,8 +1681,18 @@
       <c r="C55" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>-1</v>
+      </c>
+      <c r="E55">
+        <v>-1</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6</v>
       </c>
@@ -1167,8 +1702,18 @@
       <c r="C56" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6</v>
       </c>
@@ -1178,8 +1723,18 @@
       <c r="C57" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>-1</v>
+      </c>
+      <c r="E57">
+        <v>-1</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6</v>
       </c>
@@ -1189,8 +1744,18 @@
       <c r="C58" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>-1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6</v>
       </c>
@@ -1200,8 +1765,18 @@
       <c r="C59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6</v>
       </c>
@@ -1211,8 +1786,18 @@
       <c r="C60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6</v>
       </c>
@@ -1222,8 +1807,18 @@
       <c r="C61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>7</v>
       </c>
@@ -1233,8 +1828,18 @@
       <c r="C62" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>7</v>
       </c>
@@ -1244,8 +1849,18 @@
       <c r="C63" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>-1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>7</v>
       </c>
@@ -1255,8 +1870,18 @@
       <c r="C64" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>-1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7</v>
       </c>
@@ -1266,8 +1891,18 @@
       <c r="C65" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>-1</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>7</v>
       </c>
@@ -1277,8 +1912,18 @@
       <c r="C66" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7</v>
       </c>
@@ -1288,8 +1933,18 @@
       <c r="C67" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F101" si="1">IF(D67=E67,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7</v>
       </c>
@@ -1299,8 +1954,18 @@
       <c r="C68" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>-1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7</v>
       </c>
@@ -1310,8 +1975,18 @@
       <c r="C69" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>7</v>
       </c>
@@ -1321,8 +1996,18 @@
       <c r="C70" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>-1</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>7</v>
       </c>
@@ -1332,8 +2017,18 @@
       <c r="C71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>8</v>
       </c>
@@ -1343,8 +2038,18 @@
       <c r="C72" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>8</v>
       </c>
@@ -1354,8 +2059,18 @@
       <c r="C73" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>8</v>
       </c>
@@ -1365,8 +2080,18 @@
       <c r="C74" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>8</v>
       </c>
@@ -1376,8 +2101,18 @@
       <c r="C75" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>-1</v>
+      </c>
+      <c r="E75">
+        <v>-1</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8</v>
       </c>
@@ -1387,8 +2122,15 @@
       <c r="C76" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8</v>
       </c>
@@ -1398,8 +2140,18 @@
       <c r="C77" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>8</v>
       </c>
@@ -1409,8 +2161,18 @@
       <c r="C78" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>-1</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>8</v>
       </c>
@@ -1420,8 +2182,18 @@
       <c r="C79" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>-1</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8</v>
       </c>
@@ -1431,8 +2203,18 @@
       <c r="C80" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>8</v>
       </c>
@@ -1442,8 +2224,18 @@
       <c r="C81" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>-1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>9</v>
       </c>
@@ -1453,8 +2245,18 @@
       <c r="C82" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>9</v>
       </c>
@@ -1464,8 +2266,18 @@
       <c r="C83" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>9</v>
       </c>
@@ -1475,8 +2287,18 @@
       <c r="C84" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>-1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>9</v>
       </c>
@@ -1486,8 +2308,18 @@
       <c r="C85" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>-1</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>9</v>
       </c>
@@ -1497,8 +2329,18 @@
       <c r="C86" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>-1</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>9</v>
       </c>
@@ -1508,8 +2350,18 @@
       <c r="C87" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>-1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>9</v>
       </c>
@@ -1519,8 +2371,18 @@
       <c r="C88" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>9</v>
       </c>
@@ -1530,8 +2392,18 @@
       <c r="C89" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>9</v>
       </c>
@@ -1541,8 +2413,18 @@
       <c r="C90" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>-1</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>9</v>
       </c>
@@ -1552,8 +2434,18 @@
       <c r="C91" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>-1</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10</v>
       </c>
@@ -1563,8 +2455,18 @@
       <c r="C92" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>-1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10</v>
       </c>
@@ -1574,8 +2476,18 @@
       <c r="C93" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>10</v>
       </c>
@@ -1585,8 +2497,18 @@
       <c r="C94" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10</v>
       </c>
@@ -1596,8 +2518,18 @@
       <c r="C95" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>10</v>
       </c>
@@ -1607,8 +2539,18 @@
       <c r="C96" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>-1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>10</v>
       </c>
@@ -1618,8 +2560,18 @@
       <c r="C97" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>10</v>
       </c>
@@ -1629,8 +2581,18 @@
       <c r="C98" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>-1</v>
+      </c>
+      <c r="E98">
+        <v>-1</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>10</v>
       </c>
@@ -1640,8 +2602,18 @@
       <c r="C99" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10</v>
       </c>
@@ -1651,8 +2623,18 @@
       <c r="C100" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10</v>
       </c>
@@ -1662,8 +2644,18 @@
       <c r="C101" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>11</v>
       </c>
@@ -1674,7 +2666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>11</v>
       </c>
@@ -1685,7 +2677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>11</v>
       </c>
@@ -1696,7 +2688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>11</v>
       </c>
@@ -1707,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>11</v>
       </c>
@@ -1718,7 +2710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>11</v>
       </c>
@@ -1729,7 +2721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>11</v>
       </c>
@@ -1740,7 +2732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>11</v>
       </c>
@@ -1751,7 +2743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>11</v>
       </c>
@@ -1762,7 +2754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>11</v>
       </c>
@@ -1773,7 +2765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>12</v>
       </c>
